--- a/data/IndustryPieChart.xlsx
+++ b/data/IndustryPieChart.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBE1FE47-EA58-4448-A639-327ABD35A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{BBE1FE47-EA58-4448-A639-327ABD35A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484D774D-64AC-4FD0-8884-6C96FD27D91C}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{C7E2FAF3-0144-450F-9B79-956198872A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -487,7 +490,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -648,6 +651,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B19" xr:uid="{31A9EFA1-70B5-4E7C-839B-561866853124}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
+      <sortCondition ref="A1:A19"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>